--- a/Data/EC/NIT-9004575290.xlsx
+++ b/Data/EC/NIT-9004575290.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61DC03F-714D-4491-AD8F-5F760B300901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA177DAD-DE65-4BFC-8B1E-961EE7DD5EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C52746A9-19D9-4F9D-B1D9-04531639371E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE42E654-6C65-44FF-B518-5092DB062C26}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,45 +71,45 @@
     <t>CRISTIAN GIOVANNY PARRA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>72152688</t>
+  </si>
+  <si>
+    <t>HECTOR MANUEL ARRIETA ARRIETA</t>
+  </si>
+  <si>
+    <t>1143360508</t>
+  </si>
+  <si>
+    <t>YERINES GONZALEZ BERRIO</t>
+  </si>
+  <si>
+    <t>1001913961</t>
+  </si>
+  <si>
+    <t>HAROLD DARIO GOMEZ LOPEZ</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
     <t>1701</t>
   </si>
   <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>72152688</t>
-  </si>
-  <si>
-    <t>HECTOR MANUEL ARRIETA ARRIETA</t>
-  </si>
-  <si>
-    <t>1143360508</t>
-  </si>
-  <si>
-    <t>YERINES GONZALEZ BERRIO</t>
-  </si>
-  <si>
-    <t>1001913961</t>
-  </si>
-  <si>
-    <t>HAROLD DARIO GOMEZ LOPEZ</t>
-  </si>
-  <si>
     <t>1045678718</t>
   </si>
   <si>
@@ -125,67 +125,67 @@
     <t>GUMERSINDO ROCHA GUTIERREZ</t>
   </si>
   <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1082910678</t>
+  </si>
+  <si>
+    <t>YHONIS FIDEL REYES OROZCO</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1082910678</t>
-  </si>
-  <si>
-    <t>YHONIS FIDEL REYES OROZCO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -284,7 +284,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -297,9 +299,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,23 +499,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,10 +543,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E3308B-DE76-59FE-418B-EB62E0FE678D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEB7EBB-C75A-8864-0FC1-3F34D6BCFE84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8989AF3-B759-452C-8D4D-C6F85A8B8E57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921F0994-1D3F-4668-BB27-24E5D0E18242}">
   <dimension ref="B2:J88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1142,13 +1142,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>24000</v>
@@ -1165,19 +1165,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>24000</v>
+        <v>35440</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>886000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1188,13 +1188,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>24000</v>
@@ -1217,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>24000</v>
@@ -1234,13 +1234,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>24000</v>
@@ -1257,19 +1257,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>24000</v>
+        <v>35440</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>886000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1280,13 +1280,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>24000</v>
@@ -1303,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>24000</v>
@@ -1326,13 +1326,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>24000</v>
@@ -1349,19 +1349,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F26" s="18">
-        <v>24000</v>
+        <v>35440</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>886000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1372,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>24000</v>
@@ -1395,13 +1395,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>24000</v>
@@ -1418,13 +1418,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
         <v>24000</v>
@@ -1441,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F30" s="18">
         <v>35440</v>
@@ -1464,19 +1464,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F31" s="18">
-        <v>35440</v>
+        <v>24000</v>
       </c>
       <c r="G31" s="18">
-        <v>886000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1487,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F32" s="18">
-        <v>35440</v>
+        <v>24000</v>
       </c>
       <c r="G32" s="18">
-        <v>886000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1510,19 +1510,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F33" s="18">
-        <v>35440</v>
+        <v>24000</v>
       </c>
       <c r="G33" s="18">
-        <v>886000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1533,13 +1533,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>35440</v>
@@ -1556,19 +1556,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F35" s="18">
-        <v>35440</v>
+        <v>24000</v>
       </c>
       <c r="G35" s="18">
-        <v>886000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1579,19 +1579,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
-        <v>35440</v>
+        <v>24000</v>
       </c>
       <c r="G36" s="18">
-        <v>886000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1602,13 +1602,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F37" s="18">
         <v>24000</v>
@@ -1625,19 +1625,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F38" s="18">
-        <v>24000</v>
+        <v>35440</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>886000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1648,13 +1648,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F39" s="18">
         <v>24000</v>
@@ -1671,13 +1671,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F40" s="18">
         <v>24000</v>
@@ -1694,13 +1694,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F41" s="18">
         <v>24000</v>
@@ -1717,19 +1717,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F42" s="18">
-        <v>24000</v>
+        <v>35440</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>886000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1740,13 +1740,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F43" s="18">
         <v>24000</v>
@@ -1795,7 +1795,7 @@
         <v>29</v>
       </c>
       <c r="F45" s="18">
-        <v>31424</v>
+        <v>33841</v>
       </c>
       <c r="G45" s="18">
         <v>906442</v>
@@ -1809,16 +1809,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
-        <v>36258</v>
+        <v>15712</v>
       </c>
       <c r="G46" s="18">
         <v>906442</v>
@@ -1838,7 +1838,7 @@
         <v>28</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" s="18">
         <v>36258</v>
@@ -1855,10 +1855,10 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>32</v>
@@ -1901,13 +1901,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F50" s="18">
         <v>36258</v>
@@ -1930,7 +1930,7 @@
         <v>28</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F51" s="18">
         <v>36258</v>
@@ -1947,13 +1947,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F52" s="18">
         <v>36258</v>
@@ -1976,7 +1976,7 @@
         <v>28</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F53" s="18">
         <v>36258</v>
@@ -1993,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F54" s="18">
         <v>36258</v>
@@ -2022,7 +2022,7 @@
         <v>28</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F55" s="18">
         <v>36258</v>
@@ -2039,13 +2039,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F56" s="18">
         <v>36258</v>
@@ -2068,7 +2068,7 @@
         <v>28</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F57" s="18">
         <v>36258</v>
@@ -2085,13 +2085,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F58" s="18">
         <v>36258</v>
@@ -2114,7 +2114,7 @@
         <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F59" s="18">
         <v>36258</v>
@@ -2131,13 +2131,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F60" s="18">
         <v>36258</v>
@@ -2160,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F61" s="18">
         <v>36258</v>
@@ -2177,13 +2177,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F62" s="18">
         <v>36258</v>
@@ -2206,10 +2206,10 @@
         <v>28</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F63" s="18">
-        <v>33841</v>
+        <v>36258</v>
       </c>
       <c r="G63" s="18">
         <v>906442</v>
@@ -2223,16 +2223,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F64" s="18">
-        <v>31424</v>
+        <v>36258</v>
       </c>
       <c r="G64" s="18">
         <v>906442</v>
@@ -2246,13 +2246,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F65" s="18">
         <v>36258</v>
@@ -2269,13 +2269,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F66" s="18">
         <v>36258</v>
@@ -2292,13 +2292,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F67" s="18">
         <v>36258</v>
@@ -2315,13 +2315,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F68" s="18">
         <v>36258</v>
@@ -2338,13 +2338,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F69" s="18">
         <v>36258</v>
@@ -2361,13 +2361,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F70" s="18">
         <v>36258</v>
@@ -2384,13 +2384,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F71" s="18">
         <v>36258</v>
@@ -2407,13 +2407,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F72" s="18">
         <v>36258</v>
@@ -2430,13 +2430,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F73" s="18">
         <v>36258</v>
@@ -2453,13 +2453,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F74" s="18">
         <v>36258</v>
@@ -2476,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F75" s="18">
         <v>36258</v>
@@ -2499,13 +2499,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F76" s="18">
         <v>36258</v>
@@ -2522,13 +2522,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F77" s="18">
         <v>36258</v>
@@ -2545,13 +2545,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F78" s="18">
         <v>36258</v>
@@ -2568,13 +2568,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>36258</v>
@@ -2591,13 +2591,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F80" s="18">
         <v>36258</v>
@@ -2614,16 +2614,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D81" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="F81" s="18">
-        <v>36258</v>
+        <v>31424</v>
       </c>
       <c r="G81" s="18">
         <v>906442</v>
@@ -2637,16 +2637,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D82" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E82" s="22" t="s">
-        <v>47</v>
-      </c>
       <c r="F82" s="24">
-        <v>15712</v>
+        <v>31424</v>
       </c>
       <c r="G82" s="24">
         <v>906442</v>
